--- a/biology/Botanique/Ocimum_gratissimum/Ocimum_gratissimum.xlsx
+++ b/biology/Botanique/Ocimum_gratissimum/Ocimum_gratissimum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ocimum gratissimum, ou faux basilic[2], est une espèce de plantes de la famille des Lamiaceae. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ocimum gratissimum, ou faux basilic, est une espèce de plantes de la famille des Lamiaceae. 
 </t>
         </is>
       </c>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme une herbacée terrestre pérenne pouvant atteindre 2 mètres de haut[2].
-Feuilles
-Les feuilles sont simples, opposées, à limbe ovale et grossièrement dentelé et à base atténuée et décurrente[2]. Elles dégagent une forte odeur de clou de girofle[3].
-Fleurs
-Les fleurs sont blanches avec un petit calice. Leur corolle en tube se termine par deux lèvres. Elles sont groupées par inflorescences terminales en faux épis, longs de 7 à 20 centimètres[2].
-Fruits
-Les fruits se composent de 4 capsules sphériques et mesurent 2 millimètres de long. Les graines sont produites en grande quantité (plus de 100 millions à l'hectare). Elles se propagent par zoochorie[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme une herbacée terrestre pérenne pouvant atteindre 2 mètres de haut.
 </t>
         </is>
       </c>
@@ -546,15 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Originaire d'Inde[3], cette espèce est pantropicale[2].
-Elle a été introduite en Nouvelle-Calédonie par les Malabars comme condiment et feuilles à fumer[3].
-Caractère envahissant
-L'espèce fait partie des 300 plantes envahissantes majeures du Pacifique Sud et affecte notamment la Nouvelle-Calédonie[4], où elle est présente depuis le début du XIXe siècle. La plante est refusée par le bétail, mais les cerfs en consomment, ce qui peut réguler les peuplements[2]. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[5].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont simples, opposées, à limbe ovale et grossièrement dentelé et à base atténuée et décurrente. Elles dégagent une forte odeur de clou de girofle.
 </t>
         </is>
       </c>
@@ -580,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Intérêt médicinal ?</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est l'une des plantes qui, à la suite d'une étude de criblage à haut débit (publiée le 21 avril 2020)[6], a été retenue comme candidate potentielle pour produire un possible médicament contre le SARS-CoV-2, responsable de la pandémie de COVID-19.
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches avec un petit calice. Leur corolle en tube se termine par deux lèvres. Elles sont groupées par inflorescences terminales en faux épis, longs de 7 à 20 centimètres.
 </t>
         </is>
       </c>
@@ -611,12 +631,155 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits se composent de 4 capsules sphériques et mesurent 2 millimètres de long. Les graines sont produites en grande quantité (plus de 100 millions à l'hectare). Elles se propagent par zoochorie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire d'Inde, cette espèce est pantropicale.
+Elle a été introduite en Nouvelle-Calédonie par les Malabars comme condiment et feuilles à fumer.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce fait partie des 300 plantes envahissantes majeures du Pacifique Sud et affecte notamment la Nouvelle-Calédonie, où elle est présente depuis le début du XIXe siècle. La plante est refusée par le bétail, mais les cerfs en consomment, ce qui peut réguler les peuplements. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Intérêt médicinal ?</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'une des plantes qui, à la suite d'une étude de criblage à haut débit (publiée le 21 avril 2020), a été retenue comme candidate potentielle pour produire un possible médicament contre le SARS-CoV-2, responsable de la pandémie de COVID-19.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ocimum_gratissimum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (7 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (7 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Ocimum gratissimum subsp. gratissimum
 Ocimum gratissimum subsp. iringense Ayob. ex A.J. Paton (1992)
 Ocimum gratissimum var. gratissimum
